--- a/biology/Zoologie/Garrulaxe_de_Treacher/Garrulaxe_de_Treacher.xlsx
+++ b/biology/Zoologie/Garrulaxe_de_Treacher/Garrulaxe_de_Treacher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterorhinus treacheri
 Le Garrulaxe de Treacher (Pterorhinus treacheri) est une espèce d'oiseaux de la famille des Leiothrichidae. Cet oiseau est endémique de Bornéo.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pterorhinus treacheri a été décrite pour la première fois en 1879 par l'ornithologue britannique Richard Bowdler Sharpe (1847-1909) sous le protonyme Ianthocincla treacheri[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pterorhinus treacheri a été décrite pour la première fois en 1879 par l'ornithologue britannique Richard Bowdler Sharpe (1847-1909) sous le protonyme Ianthocincla treacheri,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Pterorhinus treacheri treacheri (Sharpe, 1879)
 sous-espèce Pterorhinus treacheri damnatus (Harrisson &amp; Hartley, 1934)
 sous-espèce Pterorhinus treacheri griswoldi (Peters, JL, 1940)</t>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, treacheri, ainsi que son nom vernaculaire (« de Treacher ») lui ont été donnés en l'honneur de l'administrateur colonial William Hood Treacher (d) (1849-1919), en poste à la Colonie de la Couronne de Labuan, et qui a fourni les quatre spécimens étudiés par l'auteur[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, treacheri, ainsi que son nom vernaculaire (« de Treacher ») lui ont été donnés en l'honneur de l'administrateur colonial William Hood Treacher (d) (1849-1919), en poste à la Colonie de la Couronne de Labuan, et qui a fourni les quatre spécimens étudiés par l'auteur.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R. Bowdler Sharpe, « On Collections of Birds from Kina Balu Mountain, in North-western Borneo », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 47, no 1,‎ 1879, p. 245–249 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, DOI 10.1111/J.1096-3642.1879.TB02653.X, lire en ligne)</t>
         </is>
